--- a/utils/transliteration_data/_quran_freq_dv.xlsx
+++ b/utils/transliteration_data/_quran_freq_dv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Quran-Translation\utils\transliteration_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E511E5-C1A8-4617-8CC8-C4BDFBBA9306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AFDE264A-5CB8-406B-B13B-9E3E28030CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">arabic_freq!$A$1:$D$819</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">arabic_freq!$A$1:$D$820</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">thaana_data!$A$1:$D$814</definedName>
     <definedName name="ExternalData_2" localSheetId="0" hidden="1">word_map!$A$1:$B$739</definedName>
   </definedNames>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5326" uniqueCount="1890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5329" uniqueCount="1892">
   <si>
     <t>ar</t>
   </si>
@@ -5724,6 +5724,12 @@
   </si>
   <si>
     <t>ޙާކިމު</t>
+  </si>
+  <si>
+    <t>މުތަޝާބިހު</t>
+  </si>
+  <si>
+    <t>އަލްބައިތުލް މަޢުމޫރު</t>
   </si>
 </sst>
 </file>
@@ -6367,8 +6373,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="arabic_freq" displayName="arabic_freq" ref="A1:F819" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F819" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="arabic_freq" displayName="arabic_freq" ref="A1:F820" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F820" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="ar" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="dv" queryTableFieldId="4" dataDxfId="2"/>
@@ -12638,10 +12644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F819"/>
+  <dimension ref="A1:F820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="F410" sqref="F410"/>
+    <sheetView tabSelected="1" topLeftCell="A748" workbookViewId="0">
+      <selection activeCell="H765" sqref="H765"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21047,8 +21053,13 @@
       <c r="A760" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B760" s="2"/>
+      <c r="B760" s="2" t="s">
+        <v>1891</v>
+      </c>
       <c r="C760">
+        <v>1</v>
+      </c>
+      <c r="D760">
         <v>1</v>
       </c>
     </row>
@@ -21705,6 +21716,14 @@
       </c>
       <c r="C819">
         <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3">
+      <c r="A820" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>1890</v>
       </c>
     </row>
   </sheetData>
@@ -21721,8 +21740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D814"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/utils/transliteration_data/_quran_freq_dv.xlsx
+++ b/utils/transliteration_data/_quran_freq_dv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Quran-Translation\utils\transliteration_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\aaa\Quran-Translation\utils\transliteration_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AFDE264A-5CB8-406B-B13B-9E3E28030CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA6FF15-DFC0-4991-8033-82DE0CCEA12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word_map" sheetId="5" r:id="rId1"/>
@@ -3527,9 +3527,6 @@
     <t>ތަންފީޛު</t>
   </si>
   <si>
-    <t>ޚައިބަރު</t>
-  </si>
-  <si>
     <t>ޝިރުކު</t>
   </si>
   <si>
@@ -5711,9 +5708,6 @@
     <t>އިރަމު</t>
   </si>
   <si>
-    <t>ތަފްސު ޠާހިރު</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -5730,6 +5724,12 @@
   </si>
   <si>
     <t>އަލްބައިތުލް މަޢުމޫރު</t>
+  </si>
+  <si>
+    <t>ނަފްސު ޠާހިރު</t>
+  </si>
+  <si>
+    <t>ރަޙްމު</t>
   </si>
 </sst>
 </file>
@@ -6724,10 +6724,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B1" t="s">
         <v>1179</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6823,7 +6823,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6887,7 +6887,7 @@
         <v>102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6919,7 +6919,7 @@
         <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6951,7 +6951,7 @@
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6999,7 +6999,7 @@
         <v>803</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>160</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7079,7 +7079,7 @@
         <v>60</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>804</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>805</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7191,7 +7191,7 @@
         <v>132</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -7215,7 +7215,7 @@
         <v>90</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -7231,15 +7231,15 @@
         <v>46</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>1196</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -7247,7 +7247,7 @@
         <v>158</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -7263,7 +7263,7 @@
         <v>82</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -7287,7 +7287,7 @@
         <v>232</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -7303,7 +7303,7 @@
         <v>94</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -7311,7 +7311,7 @@
         <v>124</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>637</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>110</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -7383,7 +7383,7 @@
         <v>548</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -7447,7 +7447,7 @@
         <v>807</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>104</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>42</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -7519,7 +7519,7 @@
         <v>190</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>14</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -7559,7 +7559,7 @@
         <v>34</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -7575,7 +7575,7 @@
         <v>192</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>808</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -7599,7 +7599,7 @@
         <v>230</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>270</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>638</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -7639,7 +7639,7 @@
         <v>262</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -7663,7 +7663,7 @@
         <v>357</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -7676,10 +7676,10 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>1219</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>325</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -7719,7 +7719,7 @@
         <v>337</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -7727,7 +7727,7 @@
         <v>339</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -7735,7 +7735,7 @@
         <v>114</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -7743,7 +7743,7 @@
         <v>809</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -7759,7 +7759,7 @@
         <v>272</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -7775,7 +7775,7 @@
         <v>810</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -7783,7 +7783,7 @@
         <v>811</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -7791,7 +7791,7 @@
         <v>812</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -7815,15 +7815,15 @@
         <v>813</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>1231</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -7839,7 +7839,7 @@
         <v>639</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -7847,7 +7847,7 @@
         <v>86</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -7871,7 +7871,7 @@
         <v>815</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -7887,7 +7887,7 @@
         <v>471</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -7919,7 +7919,7 @@
         <v>555</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -7935,7 +7935,7 @@
         <v>686</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -7943,7 +7943,7 @@
         <v>373</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -7951,15 +7951,15 @@
         <v>641</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>1241</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -8023,7 +8023,7 @@
         <v>642</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -8031,7 +8031,7 @@
         <v>818</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -8047,7 +8047,7 @@
         <v>517</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>687</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -8076,10 +8076,10 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -8103,7 +8103,7 @@
         <v>304</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>644</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -8119,7 +8119,7 @@
         <v>819</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -8127,7 +8127,7 @@
         <v>820</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -8159,7 +8159,7 @@
         <v>821</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>389</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -8191,7 +8191,7 @@
         <v>1104</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>688</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -8215,7 +8215,7 @@
         <v>689</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -8231,7 +8231,7 @@
         <v>280</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>690</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -8255,7 +8255,7 @@
         <v>822</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -8263,7 +8263,7 @@
         <v>823</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -8295,7 +8295,7 @@
         <v>824</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>608</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -8311,7 +8311,7 @@
         <v>691</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>692</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>826</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -8375,7 +8375,7 @@
         <v>693</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -8383,7 +8383,7 @@
         <v>827</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>828</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -8415,7 +8415,7 @@
         <v>735</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>830</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -8455,7 +8455,7 @@
         <v>252</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -8479,7 +8479,7 @@
         <v>831</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -8495,7 +8495,7 @@
         <v>162</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>694</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>832</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -8519,7 +8519,7 @@
         <v>833</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -8543,7 +8543,7 @@
         <v>695</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>479</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -8588,10 +8588,10 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>1279</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -8599,7 +8599,7 @@
         <v>525</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -8607,7 +8607,7 @@
         <v>836</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -8623,7 +8623,7 @@
         <v>697</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -8631,7 +8631,7 @@
         <v>645</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -8647,7 +8647,7 @@
         <v>837</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -8663,7 +8663,7 @@
         <v>646</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -8695,7 +8695,7 @@
         <v>838</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -8711,7 +8711,7 @@
         <v>698</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>647</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -8743,7 +8743,7 @@
         <v>841</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>699</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>351</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>648</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>842</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -8799,7 +8799,7 @@
         <v>443</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -8807,7 +8807,7 @@
         <v>393</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -8836,18 +8836,18 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>1297</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>1299</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -8863,7 +8863,7 @@
         <v>700</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -8879,7 +8879,7 @@
         <v>701</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>369</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -8903,7 +8903,7 @@
         <v>649</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>844</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -8919,7 +8919,7 @@
         <v>284</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -8943,7 +8943,7 @@
         <v>702</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -8951,20 +8951,20 @@
         <v>445</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>1308</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>141</v>
@@ -8975,7 +8975,7 @@
         <v>620</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -8983,7 +8983,7 @@
         <v>650</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -9055,23 +9055,23 @@
         <v>651</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>1313</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>1315</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -9087,7 +9087,7 @@
         <v>847</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>652</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -9119,7 +9119,7 @@
         <v>653</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -9135,7 +9135,7 @@
         <v>848</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -9143,15 +9143,15 @@
         <v>495</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -9167,7 +9167,7 @@
         <v>704</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -9175,7 +9175,7 @@
         <v>481</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -9183,7 +9183,7 @@
         <v>612</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>850</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -9207,7 +9207,7 @@
         <v>851</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>485</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -9239,7 +9239,7 @@
         <v>707</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -9255,7 +9255,7 @@
         <v>708</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -9271,7 +9271,7 @@
         <v>487</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -9287,7 +9287,7 @@
         <v>709</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -9308,10 +9308,10 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>1334</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>410</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -9327,7 +9327,7 @@
         <v>353</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>854</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>654</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>254</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -9399,7 +9399,7 @@
         <v>614</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -9407,7 +9407,7 @@
         <v>655</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -9415,7 +9415,7 @@
         <v>710</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -9439,7 +9439,7 @@
         <v>286</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -9455,7 +9455,7 @@
         <v>656</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>711</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -9484,10 +9484,10 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>1347</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -9495,7 +9495,7 @@
         <v>414</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -9503,7 +9503,7 @@
         <v>616</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -9519,7 +9519,7 @@
         <v>857</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -9527,7 +9527,7 @@
         <v>858</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>712</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -9543,7 +9543,7 @@
         <v>859</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -9551,7 +9551,7 @@
         <v>713</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -9567,7 +9567,7 @@
         <v>860</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -9575,7 +9575,7 @@
         <v>657</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -9583,7 +9583,7 @@
         <v>617</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -9599,7 +9599,7 @@
         <v>861</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -9607,7 +9607,7 @@
         <v>862</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -9615,7 +9615,7 @@
         <v>714</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -9631,7 +9631,7 @@
         <v>715</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -9655,7 +9655,7 @@
         <v>863</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -9663,7 +9663,7 @@
         <v>583</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -9679,7 +9679,7 @@
         <v>658</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -9695,7 +9695,7 @@
         <v>659</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -9711,7 +9711,7 @@
         <v>618</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -9727,7 +9727,7 @@
         <v>719</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -9735,7 +9735,7 @@
         <v>866</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -9743,7 +9743,7 @@
         <v>867</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -9751,7 +9751,7 @@
         <v>868</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -9759,7 +9759,7 @@
         <v>660</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -9775,7 +9775,7 @@
         <v>870</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -9783,7 +9783,7 @@
         <v>871</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -9791,7 +9791,7 @@
         <v>619</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -9815,7 +9815,7 @@
         <v>873</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -9823,7 +9823,7 @@
         <v>585</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -9831,7 +9831,7 @@
         <v>874</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -9839,7 +9839,7 @@
         <v>315</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -9847,7 +9847,7 @@
         <v>276</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -9855,7 +9855,7 @@
         <v>722</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -9863,7 +9863,7 @@
         <v>723</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -9871,7 +9871,7 @@
         <v>724</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -9879,15 +9879,15 @@
         <v>725</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -9895,7 +9895,7 @@
         <v>497</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -9903,7 +9903,7 @@
         <v>661</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -9927,7 +9927,7 @@
         <v>876</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -9935,7 +9935,7 @@
         <v>246</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -9959,7 +9959,7 @@
         <v>877</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -9967,7 +9967,7 @@
         <v>878</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -9983,7 +9983,7 @@
         <v>662</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>727</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -10007,7 +10007,7 @@
         <v>728</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -10015,7 +10015,7 @@
         <v>323</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -10023,7 +10023,7 @@
         <v>879</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -10031,7 +10031,7 @@
         <v>621</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -10039,7 +10039,7 @@
         <v>880</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -10047,7 +10047,7 @@
         <v>881</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -10055,7 +10055,7 @@
         <v>418</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>882</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -10071,7 +10071,7 @@
         <v>883</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -10079,7 +10079,7 @@
         <v>622</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -10095,7 +10095,7 @@
         <v>664</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -10103,7 +10103,7 @@
         <v>729</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -10111,7 +10111,7 @@
         <v>730</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -10119,7 +10119,7 @@
         <v>731</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -10127,7 +10127,7 @@
         <v>288</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -10135,7 +10135,7 @@
         <v>499</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -10167,7 +10167,7 @@
         <v>665</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -10175,7 +10175,7 @@
         <v>428</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -10199,7 +10199,7 @@
         <v>885</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -10207,7 +10207,7 @@
         <v>733</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -10215,7 +10215,7 @@
         <v>886</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -10223,7 +10223,7 @@
         <v>624</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -10231,7 +10231,7 @@
         <v>625</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -10247,7 +10247,7 @@
         <v>734</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -10263,7 +10263,7 @@
         <v>890</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>626</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -10279,7 +10279,7 @@
         <v>891</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -10287,7 +10287,7 @@
         <v>892</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -10295,7 +10295,7 @@
         <v>893</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -10303,7 +10303,7 @@
         <v>894</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -10311,7 +10311,7 @@
         <v>895</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -10319,7 +10319,7 @@
         <v>896</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -10351,7 +10351,7 @@
         <v>627</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -10367,7 +10367,7 @@
         <v>666</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>898</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -10383,12 +10383,12 @@
         <v>628</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>1132</v>
@@ -10396,18 +10396,18 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B460" s="1" t="s">
         <v>1420</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B461" s="1" t="s">
         <v>1422</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -10415,7 +10415,7 @@
         <v>738</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -10423,7 +10423,7 @@
         <v>739</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>901</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -10471,7 +10471,7 @@
         <v>903</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -10479,7 +10479,7 @@
         <v>904</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -10487,7 +10487,7 @@
         <v>905</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -10495,7 +10495,7 @@
         <v>543</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -10503,7 +10503,7 @@
         <v>907</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -10511,7 +10511,7 @@
         <v>630</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -10519,7 +10519,7 @@
         <v>668</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -10527,7 +10527,7 @@
         <v>910</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -10535,7 +10535,7 @@
         <v>911</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -10543,7 +10543,7 @@
         <v>912</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -10551,15 +10551,15 @@
         <v>669</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B480" s="1" t="s">
         <v>1436</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -10567,7 +10567,7 @@
         <v>371</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -10575,7 +10575,7 @@
         <v>915</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -10583,7 +10583,7 @@
         <v>670</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -10591,7 +10591,7 @@
         <v>916</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -10599,15 +10599,15 @@
         <v>917</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B486" s="1" t="s">
         <v>1443</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -10620,10 +10620,10 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B488" s="1" t="s">
         <v>1445</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -10631,7 +10631,7 @@
         <v>631</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -10639,7 +10639,7 @@
         <v>744</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -10647,7 +10647,7 @@
         <v>745</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -10655,7 +10655,7 @@
         <v>503</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -10663,7 +10663,7 @@
         <v>919</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -10671,7 +10671,7 @@
         <v>746</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -10679,7 +10679,7 @@
         <v>747</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -10687,7 +10687,7 @@
         <v>922</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -10695,7 +10695,7 @@
         <v>748</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -10703,23 +10703,23 @@
         <v>923</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B499" s="1" t="s">
         <v>1457</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B500" s="1" t="s">
         <v>1459</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -10735,7 +10735,7 @@
         <v>505</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -10743,7 +10743,7 @@
         <v>749</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -10751,7 +10751,7 @@
         <v>927</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -10759,7 +10759,7 @@
         <v>928</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>632</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -10775,7 +10775,7 @@
         <v>750</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -10791,7 +10791,7 @@
         <v>929</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>930</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -10807,7 +10807,7 @@
         <v>751</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -10815,7 +10815,7 @@
         <v>931</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -10831,7 +10831,7 @@
         <v>752</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -10839,7 +10839,7 @@
         <v>753</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -10847,7 +10847,7 @@
         <v>933</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -10855,7 +10855,7 @@
         <v>507</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -10863,12 +10863,12 @@
         <v>754</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>77</v>
@@ -10876,26 +10876,26 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B520" s="1" t="s">
         <v>1474</v>
-      </c>
-      <c r="B520" s="1" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B521" s="1" t="s">
         <v>1476</v>
-      </c>
-      <c r="B521" s="1" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B522" s="1" t="s">
         <v>1478</v>
-      </c>
-      <c r="B522" s="1" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -10903,7 +10903,7 @@
         <v>935</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -10911,7 +10911,7 @@
         <v>936</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -10919,7 +10919,7 @@
         <v>937</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -10927,7 +10927,7 @@
         <v>938</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -10935,12 +10935,12 @@
         <v>939</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>131</v>
@@ -10948,18 +10948,18 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B529" s="1" t="s">
         <v>1486</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B530" s="1" t="s">
         <v>1488</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -10967,7 +10967,7 @@
         <v>941</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -10975,7 +10975,7 @@
         <v>597</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -10983,7 +10983,7 @@
         <v>942</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -10991,7 +10991,7 @@
         <v>943</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -10999,7 +10999,7 @@
         <v>757</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -11007,7 +11007,7 @@
         <v>598</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -11015,7 +11015,7 @@
         <v>758</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -11023,7 +11023,7 @@
         <v>946</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -11031,7 +11031,7 @@
         <v>947</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -11039,23 +11039,23 @@
         <v>672</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B541" s="1" t="s">
         <v>1500</v>
-      </c>
-      <c r="B541" s="1" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B542" s="1" t="s">
         <v>1502</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -11063,7 +11063,7 @@
         <v>760</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -11071,7 +11071,7 @@
         <v>949</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -11079,12 +11079,12 @@
         <v>761</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="1" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>454</v>
@@ -11095,15 +11095,15 @@
         <v>762</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B548" s="1" t="s">
         <v>1509</v>
-      </c>
-      <c r="B548" s="1" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -11111,7 +11111,7 @@
         <v>950</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -11119,12 +11119,12 @@
         <v>763</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="1" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>1140</v>
@@ -11135,15 +11135,15 @@
         <v>954</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B553" s="1" t="s">
         <v>1515</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -11159,7 +11159,7 @@
         <v>764</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -11167,7 +11167,7 @@
         <v>633</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -11175,7 +11175,7 @@
         <v>959</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -11183,7 +11183,7 @@
         <v>765</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -11191,7 +11191,7 @@
         <v>960</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -11204,26 +11204,26 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B561" s="1" t="s">
         <v>1522</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B562" s="1" t="s">
         <v>1524</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="1" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -11231,7 +11231,7 @@
         <v>964</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -11239,7 +11239,7 @@
         <v>965</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -11247,7 +11247,7 @@
         <v>766</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>966</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -11271,23 +11271,23 @@
         <v>767</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B570" s="1" t="s">
         <v>1531</v>
-      </c>
-      <c r="B570" s="1" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B571" s="1" t="s">
         <v>1533</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -11295,7 +11295,7 @@
         <v>634</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -11303,7 +11303,7 @@
         <v>969</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -11311,7 +11311,7 @@
         <v>673</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -11319,7 +11319,7 @@
         <v>970</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -11327,7 +11327,7 @@
         <v>769</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -11335,7 +11335,7 @@
         <v>971</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -11343,7 +11343,7 @@
         <v>465</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -11351,7 +11351,7 @@
         <v>674</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -11359,7 +11359,7 @@
         <v>770</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -11367,7 +11367,7 @@
         <v>771</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -11375,7 +11375,7 @@
         <v>973</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -11383,7 +11383,7 @@
         <v>773</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -11391,7 +11391,7 @@
         <v>1107</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -11407,7 +11407,7 @@
         <v>675</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -11415,7 +11415,7 @@
         <v>975</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -11423,7 +11423,7 @@
         <v>977</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -11431,7 +11431,7 @@
         <v>774</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -11439,7 +11439,7 @@
         <v>1108</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -11447,7 +11447,7 @@
         <v>775</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -11455,7 +11455,7 @@
         <v>978</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -11463,15 +11463,15 @@
         <v>979</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -11479,7 +11479,7 @@
         <v>980</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -11487,7 +11487,7 @@
         <v>776</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -11495,7 +11495,7 @@
         <v>981</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -11511,7 +11511,7 @@
         <v>635</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -11519,7 +11519,7 @@
         <v>982</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -11527,7 +11527,7 @@
         <v>676</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -11535,7 +11535,7 @@
         <v>778</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -11543,7 +11543,7 @@
         <v>984</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -11551,31 +11551,31 @@
         <v>779</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B605" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="B605" s="1" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B606" s="1" t="s">
         <v>1566</v>
-      </c>
-      <c r="B606" s="1" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B607" s="1" t="s">
         <v>1568</v>
-      </c>
-      <c r="B607" s="1" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -11583,7 +11583,7 @@
         <v>986</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -11591,7 +11591,7 @@
         <v>780</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -11599,7 +11599,7 @@
         <v>781</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>545</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -11615,7 +11615,7 @@
         <v>988</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -11623,7 +11623,7 @@
         <v>990</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -11647,7 +11647,7 @@
         <v>991</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -11655,7 +11655,7 @@
         <v>783</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -11663,15 +11663,15 @@
         <v>784</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B619" s="1" t="s">
         <v>1579</v>
-      </c>
-      <c r="B619" s="1" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -11679,7 +11679,7 @@
         <v>993</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -11687,7 +11687,7 @@
         <v>677</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -11695,7 +11695,7 @@
         <v>995</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -11703,7 +11703,7 @@
         <v>996</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -11711,15 +11711,15 @@
         <v>785</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B625" s="1" t="s">
         <v>1586</v>
-      </c>
-      <c r="B625" s="1" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -11727,7 +11727,7 @@
         <v>1001</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -11735,7 +11735,7 @@
         <v>1002</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -11743,7 +11743,7 @@
         <v>1003</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -11751,23 +11751,23 @@
         <v>786</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B630" s="1" t="s">
         <v>1591</v>
-      </c>
-      <c r="B630" s="1" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B631" s="1" t="s">
         <v>1593</v>
-      </c>
-      <c r="B631" s="1" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -11783,15 +11783,15 @@
         <v>787</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B634" s="1" t="s">
         <v>1596</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -11807,7 +11807,7 @@
         <v>1007</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -11815,7 +11815,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -11823,7 +11823,7 @@
         <v>1008</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -11831,7 +11831,7 @@
         <v>1009</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -11839,7 +11839,7 @@
         <v>788</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -11847,7 +11847,7 @@
         <v>1010</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -11855,15 +11855,15 @@
         <v>678</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -11871,7 +11871,7 @@
         <v>1011</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1012</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -11887,7 +11887,7 @@
         <v>1013</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -11895,7 +11895,7 @@
         <v>1015</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -11903,7 +11903,7 @@
         <v>1016</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1018</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1019</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -11935,7 +11935,7 @@
         <v>789</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -11943,7 +11943,7 @@
         <v>680</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -11951,7 +11951,7 @@
         <v>1027</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -11959,7 +11959,7 @@
         <v>1028</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -11967,7 +11967,7 @@
         <v>1029</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -11975,15 +11975,15 @@
         <v>790</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B658" s="1" t="s">
         <v>1616</v>
-      </c>
-      <c r="B658" s="1" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -11991,7 +11991,7 @@
         <v>1031</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -11999,7 +11999,7 @@
         <v>681</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -12015,15 +12015,15 @@
         <v>1033</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -12031,7 +12031,7 @@
         <v>1034</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -12039,7 +12039,7 @@
         <v>1038</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -12055,7 +12055,7 @@
         <v>1039</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>682</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -12071,7 +12071,7 @@
         <v>1040</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -12079,23 +12079,23 @@
         <v>1041</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B671" s="1" t="s">
         <v>1627</v>
-      </c>
-      <c r="B671" s="1" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B672" s="1" t="s">
         <v>1629</v>
-      </c>
-      <c r="B672" s="1" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -12103,7 +12103,7 @@
         <v>792</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -12111,7 +12111,7 @@
         <v>1075</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -12119,39 +12119,39 @@
         <v>1045</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B676" s="1" t="s">
         <v>1634</v>
-      </c>
-      <c r="B676" s="1" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B677" s="1" t="s">
         <v>1636</v>
-      </c>
-      <c r="B677" s="1" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B678" s="1" t="s">
         <v>1638</v>
-      </c>
-      <c r="B678" s="1" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B679" s="1" t="s">
         <v>1640</v>
-      </c>
-      <c r="B679" s="1" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -12159,7 +12159,7 @@
         <v>1047</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -12167,7 +12167,7 @@
         <v>1048</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -12175,7 +12175,7 @@
         <v>1049</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -12183,7 +12183,7 @@
         <v>1050</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -12191,15 +12191,15 @@
         <v>794</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B685" s="1" t="s">
         <v>1647</v>
-      </c>
-      <c r="B685" s="1" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -12207,7 +12207,7 @@
         <v>1051</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>796</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -12223,7 +12223,7 @@
         <v>1052</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -12231,7 +12231,7 @@
         <v>1053</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -12239,7 +12239,7 @@
         <v>1054</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -12247,7 +12247,7 @@
         <v>1055</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -12255,7 +12255,7 @@
         <v>1056</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -12263,7 +12263,7 @@
         <v>1057</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -12271,7 +12271,7 @@
         <v>1059</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -12279,7 +12279,7 @@
         <v>683</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -12287,7 +12287,7 @@
         <v>1061</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -12295,7 +12295,7 @@
         <v>1062</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -12303,7 +12303,7 @@
         <v>1063</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -12311,7 +12311,7 @@
         <v>1064</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -12319,7 +12319,7 @@
         <v>1066</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -12327,7 +12327,7 @@
         <v>1067</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -12335,7 +12335,7 @@
         <v>797</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -12343,7 +12343,7 @@
         <v>1069</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -12351,7 +12351,7 @@
         <v>1070</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -12359,31 +12359,31 @@
         <v>1071</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B706" s="1" t="s">
         <v>1669</v>
-      </c>
-      <c r="B706" s="1" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B707" s="1" t="s">
         <v>1671</v>
-      </c>
-      <c r="B707" s="1" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B708" s="1" t="s">
         <v>1673</v>
-      </c>
-      <c r="B708" s="1" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -12391,7 +12391,7 @@
         <v>1073</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -12399,7 +12399,7 @@
         <v>799</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -12407,7 +12407,7 @@
         <v>1074</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -12415,7 +12415,7 @@
         <v>1076</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -12423,7 +12423,7 @@
         <v>1077</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -12431,7 +12431,7 @@
         <v>1078</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -12439,7 +12439,7 @@
         <v>1079</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -12447,7 +12447,7 @@
         <v>1080</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -12455,31 +12455,31 @@
         <v>1081</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B718" s="1" t="s">
         <v>1683</v>
-      </c>
-      <c r="B718" s="1" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B719" s="1" t="s">
         <v>1685</v>
-      </c>
-      <c r="B719" s="1" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B720" s="1" t="s">
         <v>1687</v>
-      </c>
-      <c r="B720" s="1" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -12495,7 +12495,7 @@
         <v>1085</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -12503,7 +12503,7 @@
         <v>1086</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -12511,15 +12511,15 @@
         <v>1087</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B725" s="1" t="s">
         <v>1692</v>
-      </c>
-      <c r="B725" s="1" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -12527,7 +12527,7 @@
         <v>1088</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -12535,23 +12535,23 @@
         <v>801</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B728" s="1" t="s">
         <v>1696</v>
-      </c>
-      <c r="B728" s="1" t="s">
-        <v>1697</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B729" s="1" t="s">
         <v>1698</v>
-      </c>
-      <c r="B729" s="1" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -12559,7 +12559,7 @@
         <v>1091</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -12567,7 +12567,7 @@
         <v>1092</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -12575,7 +12575,7 @@
         <v>1093</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -12583,7 +12583,7 @@
         <v>1095</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -12591,7 +12591,7 @@
         <v>1096</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -12599,7 +12599,7 @@
         <v>684</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -12607,7 +12607,7 @@
         <v>1097</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -12615,7 +12615,7 @@
         <v>1098</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -12623,7 +12623,7 @@
         <v>1099</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -12631,7 +12631,7 @@
         <v>802</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
   </sheetData>
@@ -12646,8 +12646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A748" workbookViewId="0">
-      <selection activeCell="H765" sqref="H765"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12674,10 +12674,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F1" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -14105,7 +14105,7 @@
         <v>254</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="C130">
         <v>25</v>
@@ -14683,7 +14683,7 @@
         <v>357</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C182">
         <v>14</v>
@@ -15013,7 +15013,7 @@
         <v>414</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C212">
         <v>10</v>
@@ -15035,7 +15035,7 @@
         <v>418</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>419</v>
+        <v>1891</v>
       </c>
       <c r="C214">
         <v>10</v>
@@ -15101,7 +15101,7 @@
         <v>430</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C220">
         <v>9</v>
@@ -16362,7 +16362,7 @@
         <v>616</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>1157</v>
+        <v>1349</v>
       </c>
       <c r="C335">
         <v>4</v>
@@ -16373,7 +16373,7 @@
         <v>617</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C336">
         <v>4</v>
@@ -16384,7 +16384,7 @@
         <v>618</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C337">
         <v>4</v>
@@ -16395,7 +16395,7 @@
         <v>619</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C338">
         <v>4</v>
@@ -16406,13 +16406,13 @@
         <v>620</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C339">
         <v>4</v>
       </c>
       <c r="E339" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -16420,7 +16420,7 @@
         <v>621</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C340">
         <v>4</v>
@@ -16431,7 +16431,7 @@
         <v>622</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C341">
         <v>4</v>
@@ -16442,7 +16442,7 @@
         <v>623</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C342">
         <v>4</v>
@@ -16453,7 +16453,7 @@
         <v>624</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C343">
         <v>4</v>
@@ -16464,7 +16464,7 @@
         <v>625</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C344">
         <v>4</v>
@@ -16475,7 +16475,7 @@
         <v>626</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C345">
         <v>4</v>
@@ -16486,7 +16486,7 @@
         <v>627</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C346">
         <v>4</v>
@@ -16497,7 +16497,7 @@
         <v>628</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C347">
         <v>4</v>
@@ -16517,7 +16517,7 @@
         <v>630</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C349">
         <v>4</v>
@@ -16528,7 +16528,7 @@
         <v>631</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C350">
         <v>4</v>
@@ -16539,7 +16539,7 @@
         <v>632</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C351">
         <v>4</v>
@@ -16550,7 +16550,7 @@
         <v>633</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C352">
         <v>4</v>
@@ -16561,7 +16561,7 @@
         <v>634</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C353">
         <v>4</v>
@@ -16572,7 +16572,7 @@
         <v>635</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C354">
         <v>4</v>
@@ -16583,7 +16583,7 @@
         <v>636</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C355">
         <v>4</v>
@@ -16594,7 +16594,7 @@
         <v>637</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C356">
         <v>3</v>
@@ -16605,7 +16605,7 @@
         <v>638</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C357">
         <v>3</v>
@@ -16616,7 +16616,7 @@
         <v>639</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C358">
         <v>3</v>
@@ -16627,7 +16627,7 @@
         <v>640</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C359">
         <v>3</v>
@@ -16638,7 +16638,7 @@
         <v>641</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C360">
         <v>3</v>
@@ -16649,7 +16649,7 @@
         <v>642</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C361">
         <v>3</v>
@@ -16660,7 +16660,7 @@
         <v>643</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C362">
         <v>3</v>
@@ -16671,7 +16671,7 @@
         <v>644</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C363">
         <v>3</v>
@@ -16682,7 +16682,7 @@
         <v>645</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C364">
         <v>3</v>
@@ -16693,7 +16693,7 @@
         <v>646</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C365">
         <v>3</v>
@@ -16704,7 +16704,7 @@
         <v>647</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C366">
         <v>3</v>
@@ -16715,7 +16715,7 @@
         <v>648</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C367">
         <v>3</v>
@@ -16726,7 +16726,7 @@
         <v>649</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C368">
         <v>3</v>
@@ -16737,7 +16737,7 @@
         <v>650</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C369">
         <v>3</v>
@@ -16748,7 +16748,7 @@
         <v>651</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C370">
         <v>3</v>
@@ -16759,7 +16759,7 @@
         <v>652</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C371">
         <v>3</v>
@@ -16770,7 +16770,7 @@
         <v>653</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C372">
         <v>3</v>
@@ -16781,7 +16781,7 @@
         <v>654</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C373">
         <v>3</v>
@@ -16792,7 +16792,7 @@
         <v>655</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C374">
         <v>3</v>
@@ -16803,7 +16803,7 @@
         <v>656</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C375">
         <v>3</v>
@@ -16814,7 +16814,7 @@
         <v>657</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C376">
         <v>3</v>
@@ -16825,7 +16825,7 @@
         <v>658</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C377">
         <v>3</v>
@@ -16836,7 +16836,7 @@
         <v>659</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C378">
         <v>3</v>
@@ -16847,7 +16847,7 @@
         <v>660</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C379">
         <v>3</v>
@@ -16858,7 +16858,7 @@
         <v>661</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C380">
         <v>3</v>
@@ -16869,7 +16869,7 @@
         <v>662</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C381">
         <v>3</v>
@@ -16880,7 +16880,7 @@
         <v>663</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C382">
         <v>3</v>
@@ -16891,7 +16891,7 @@
         <v>664</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C383">
         <v>3</v>
@@ -16902,7 +16902,7 @@
         <v>665</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C384">
         <v>3</v>
@@ -16913,7 +16913,7 @@
         <v>666</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C385">
         <v>3</v>
@@ -16924,7 +16924,7 @@
         <v>668</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C386">
         <v>3</v>
@@ -16935,7 +16935,7 @@
         <v>669</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C387">
         <v>3</v>
@@ -16946,7 +16946,7 @@
         <v>670</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C388">
         <v>3</v>
@@ -16957,7 +16957,7 @@
         <v>671</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C389">
         <v>3</v>
@@ -16968,7 +16968,7 @@
         <v>672</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C390">
         <v>3</v>
@@ -16979,7 +16979,7 @@
         <v>673</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C391">
         <v>3</v>
@@ -16990,7 +16990,7 @@
         <v>674</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C392">
         <v>3</v>
@@ -17001,7 +17001,7 @@
         <v>675</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C393">
         <v>3</v>
@@ -17012,7 +17012,7 @@
         <v>676</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C394">
         <v>3</v>
@@ -17023,7 +17023,7 @@
         <v>754</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C395">
         <v>3</v>
@@ -17034,7 +17034,7 @@
         <v>677</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="C396">
         <v>3</v>
@@ -17045,7 +17045,7 @@
         <v>678</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C397">
         <v>3</v>
@@ -17056,7 +17056,7 @@
         <v>679</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C398">
         <v>3</v>
@@ -17067,7 +17067,7 @@
         <v>680</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C399">
         <v>3</v>
@@ -17078,7 +17078,7 @@
         <v>1107</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C400">
         <v>3</v>
@@ -17089,7 +17089,7 @@
         <v>681</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C401">
         <v>3</v>
@@ -17100,7 +17100,7 @@
         <v>682</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C402">
         <v>3</v>
@@ -17111,7 +17111,7 @@
         <v>683</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C403">
         <v>3</v>
@@ -17122,7 +17122,7 @@
         <v>991</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C404">
         <v>3</v>
@@ -17133,7 +17133,7 @@
         <v>684</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C405">
         <v>3</v>
@@ -17144,7 +17144,7 @@
         <v>685</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C406">
         <v>2</v>
@@ -17158,7 +17158,7 @@
         <v>686</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C407">
         <v>2</v>
@@ -17169,7 +17169,7 @@
         <v>687</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C408">
         <v>2</v>
@@ -17180,7 +17180,7 @@
         <v>688</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C409">
         <v>2</v>
@@ -17191,7 +17191,7 @@
         <v>689</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C410">
         <v>2</v>
@@ -17202,7 +17202,7 @@
         <v>690</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C411">
         <v>2</v>
@@ -17213,7 +17213,7 @@
         <v>691</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C412">
         <v>2</v>
@@ -17224,7 +17224,7 @@
         <v>692</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C413">
         <v>2</v>
@@ -17235,7 +17235,7 @@
         <v>693</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C414">
         <v>2</v>
@@ -17246,7 +17246,7 @@
         <v>694</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C415">
         <v>2</v>
@@ -17257,7 +17257,7 @@
         <v>695</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C416">
         <v>2</v>
@@ -17279,7 +17279,7 @@
         <v>697</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C418">
         <v>2</v>
@@ -17290,7 +17290,7 @@
         <v>698</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C419">
         <v>2</v>
@@ -17301,7 +17301,7 @@
         <v>699</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C420">
         <v>2</v>
@@ -17312,7 +17312,7 @@
         <v>700</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C421">
         <v>2</v>
@@ -17323,7 +17323,7 @@
         <v>701</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C422">
         <v>2</v>
@@ -17345,7 +17345,7 @@
         <v>703</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C424">
         <v>2</v>
@@ -17356,7 +17356,7 @@
         <v>704</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C425">
         <v>2</v>
@@ -17367,7 +17367,7 @@
         <v>705</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C426">
         <v>2</v>
@@ -17378,7 +17378,7 @@
         <v>706</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C427">
         <v>2</v>
@@ -17389,7 +17389,7 @@
         <v>707</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C428">
         <v>2</v>
@@ -17400,7 +17400,7 @@
         <v>708</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C429">
         <v>2</v>
@@ -17411,7 +17411,7 @@
         <v>709</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C430">
         <v>2</v>
@@ -17422,7 +17422,7 @@
         <v>710</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C431">
         <v>2</v>
@@ -17433,7 +17433,7 @@
         <v>711</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C432">
         <v>2</v>
@@ -17444,7 +17444,7 @@
         <v>712</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C433">
         <v>2</v>
@@ -17455,7 +17455,7 @@
         <v>713</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C434">
         <v>2</v>
@@ -17466,7 +17466,7 @@
         <v>714</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C435">
         <v>2</v>
@@ -17477,7 +17477,7 @@
         <v>715</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C436">
         <v>2</v>
@@ -17488,7 +17488,7 @@
         <v>716</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C437">
         <v>2</v>
@@ -17499,7 +17499,7 @@
         <v>717</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C438">
         <v>2</v>
@@ -17510,7 +17510,7 @@
         <v>718</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C439">
         <v>2</v>
@@ -17521,7 +17521,7 @@
         <v>719</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C440">
         <v>2</v>
@@ -17532,7 +17532,7 @@
         <v>720</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C441">
         <v>2</v>
@@ -17543,7 +17543,7 @@
         <v>721</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C442">
         <v>2</v>
@@ -17554,7 +17554,7 @@
         <v>722</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C443">
         <v>2</v>
@@ -17565,7 +17565,7 @@
         <v>723</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C444">
         <v>2</v>
@@ -17576,7 +17576,7 @@
         <v>724</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C445">
         <v>2</v>
@@ -17587,7 +17587,7 @@
         <v>725</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C446">
         <v>2</v>
@@ -17598,7 +17598,7 @@
         <v>726</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C447">
         <v>2</v>
@@ -17609,7 +17609,7 @@
         <v>727</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C448">
         <v>2</v>
@@ -17620,7 +17620,7 @@
         <v>728</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C449">
         <v>2</v>
@@ -17631,7 +17631,7 @@
         <v>729</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C450">
         <v>2</v>
@@ -17642,7 +17642,7 @@
         <v>730</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C451">
         <v>2</v>
@@ -17653,7 +17653,7 @@
         <v>731</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C452">
         <v>2</v>
@@ -17664,7 +17664,7 @@
         <v>732</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C453">
         <v>2</v>
@@ -17675,7 +17675,7 @@
         <v>733</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C454">
         <v>2</v>
@@ -17686,7 +17686,7 @@
         <v>734</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C455">
         <v>2</v>
@@ -17697,7 +17697,7 @@
         <v>735</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C456">
         <v>2</v>
@@ -17708,7 +17708,7 @@
         <v>736</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C457">
         <v>2</v>
@@ -17719,7 +17719,7 @@
         <v>737</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C458">
         <v>2</v>
@@ -17730,7 +17730,7 @@
         <v>738</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C459">
         <v>2</v>
@@ -17741,7 +17741,7 @@
         <v>739</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C460">
         <v>2</v>
@@ -17752,7 +17752,7 @@
         <v>740</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C461">
         <v>2</v>
@@ -17763,7 +17763,7 @@
         <v>741</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C462">
         <v>2</v>
@@ -17783,7 +17783,7 @@
         <v>743</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C464">
         <v>2</v>
@@ -17794,7 +17794,7 @@
         <v>744</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C465">
         <v>2</v>
@@ -17805,7 +17805,7 @@
         <v>745</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C466">
         <v>2</v>
@@ -17816,7 +17816,7 @@
         <v>746</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C467">
         <v>2</v>
@@ -17827,7 +17827,7 @@
         <v>747</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C468">
         <v>2</v>
@@ -17838,7 +17838,7 @@
         <v>748</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C469">
         <v>2</v>
@@ -17849,7 +17849,7 @@
         <v>749</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C470">
         <v>2</v>
@@ -17860,7 +17860,7 @@
         <v>750</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C471">
         <v>2</v>
@@ -17871,7 +17871,7 @@
         <v>751</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C472">
         <v>2</v>
@@ -17882,7 +17882,7 @@
         <v>752</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C473">
         <v>2</v>
@@ -17893,7 +17893,7 @@
         <v>753</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C474">
         <v>2</v>
@@ -17904,7 +17904,7 @@
         <v>755</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C475">
         <v>2</v>
@@ -17915,7 +17915,7 @@
         <v>756</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C476">
         <v>2</v>
@@ -17926,7 +17926,7 @@
         <v>757</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C477">
         <v>2</v>
@@ -17937,7 +17937,7 @@
         <v>758</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C478">
         <v>2</v>
@@ -17948,7 +17948,7 @@
         <v>759</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C479">
         <v>2</v>
@@ -17959,7 +17959,7 @@
         <v>760</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C480">
         <v>2</v>
@@ -17970,7 +17970,7 @@
         <v>761</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C481">
         <v>2</v>
@@ -17981,7 +17981,7 @@
         <v>762</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C482">
         <v>2</v>
@@ -17992,7 +17992,7 @@
         <v>763</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C483">
         <v>2</v>
@@ -18003,7 +18003,7 @@
         <v>764</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C484">
         <v>2</v>
@@ -18014,7 +18014,7 @@
         <v>765</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C485">
         <v>2</v>
@@ -18025,7 +18025,7 @@
         <v>766</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C486">
         <v>2</v>
@@ -18036,7 +18036,7 @@
         <v>767</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C487">
         <v>2</v>
@@ -18047,7 +18047,7 @@
         <v>768</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C488">
         <v>2</v>
@@ -18058,7 +18058,7 @@
         <v>769</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C489">
         <v>2</v>
@@ -18069,7 +18069,7 @@
         <v>770</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C490">
         <v>2</v>
@@ -18080,7 +18080,7 @@
         <v>771</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C491">
         <v>2</v>
@@ -18091,7 +18091,7 @@
         <v>772</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C492">
         <v>2</v>
@@ -18102,7 +18102,7 @@
         <v>773</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C493">
         <v>2</v>
@@ -18113,7 +18113,7 @@
         <v>774</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C494">
         <v>2</v>
@@ -18124,7 +18124,7 @@
         <v>775</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C495">
         <v>2</v>
@@ -18135,7 +18135,7 @@
         <v>776</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C496">
         <v>2</v>
@@ -18146,7 +18146,7 @@
         <v>777</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C497">
         <v>2</v>
@@ -18157,7 +18157,7 @@
         <v>778</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C498">
         <v>2</v>
@@ -18168,7 +18168,7 @@
         <v>779</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C499">
         <v>2</v>
@@ -18179,7 +18179,7 @@
         <v>780</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C500">
         <v>2</v>
@@ -18190,7 +18190,7 @@
         <v>781</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C501">
         <v>2</v>
@@ -18201,7 +18201,7 @@
         <v>1108</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C502">
         <v>2</v>
@@ -18212,7 +18212,7 @@
         <v>783</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C503">
         <v>2</v>
@@ -18223,7 +18223,7 @@
         <v>784</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C504">
         <v>2</v>
@@ -18234,7 +18234,7 @@
         <v>785</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C505">
         <v>2</v>
@@ -18245,7 +18245,7 @@
         <v>786</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C506">
         <v>2</v>
@@ -18256,7 +18256,7 @@
         <v>787</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C507">
         <v>2</v>
@@ -18267,7 +18267,7 @@
         <v>788</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C508">
         <v>2</v>
@@ -18278,7 +18278,7 @@
         <v>789</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C509">
         <v>2</v>
@@ -18289,7 +18289,7 @@
         <v>790</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C510">
         <v>2</v>
@@ -18300,7 +18300,7 @@
         <v>791</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C511">
         <v>2</v>
@@ -18311,7 +18311,7 @@
         <v>792</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C512">
         <v>2</v>
@@ -18322,7 +18322,7 @@
         <v>793</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C513">
         <v>2</v>
@@ -18333,7 +18333,7 @@
         <v>794</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C514">
         <v>2</v>
@@ -18355,7 +18355,7 @@
         <v>1010</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C516">
         <v>2</v>
@@ -18366,7 +18366,7 @@
         <v>796</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C517">
         <v>2</v>
@@ -18377,7 +18377,7 @@
         <v>797</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C518">
         <v>2</v>
@@ -18388,7 +18388,7 @@
         <v>798</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C519">
         <v>2</v>
@@ -18399,7 +18399,7 @@
         <v>799</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C520">
         <v>2</v>
@@ -18410,7 +18410,7 @@
         <v>800</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C521">
         <v>2</v>
@@ -18421,7 +18421,7 @@
         <v>801</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C522">
         <v>2</v>
@@ -18432,7 +18432,7 @@
         <v>802</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C523">
         <v>2</v>
@@ -18443,7 +18443,7 @@
         <v>803</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C524">
         <v>1</v>
@@ -18454,7 +18454,7 @@
         <v>804</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C525">
         <v>1</v>
@@ -18465,7 +18465,7 @@
         <v>805</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C526">
         <v>1</v>
@@ -18476,7 +18476,7 @@
         <v>806</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C527">
         <v>1</v>
@@ -18487,7 +18487,7 @@
         <v>807</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C528">
         <v>1</v>
@@ -18498,7 +18498,7 @@
         <v>808</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C529">
         <v>1</v>
@@ -18509,7 +18509,7 @@
         <v>809</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C530">
         <v>1</v>
@@ -18520,7 +18520,7 @@
         <v>810</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C531">
         <v>1</v>
@@ -18531,7 +18531,7 @@
         <v>811</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C532">
         <v>1</v>
@@ -18542,7 +18542,7 @@
         <v>812</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C533">
         <v>1</v>
@@ -18553,7 +18553,7 @@
         <v>813</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C534">
         <v>1</v>
@@ -18567,7 +18567,7 @@
         <v>814</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C535">
         <v>1</v>
@@ -18581,7 +18581,7 @@
         <v>815</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C536">
         <v>1</v>
@@ -18592,7 +18592,7 @@
         <v>816</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C537">
         <v>1</v>
@@ -18603,7 +18603,7 @@
         <v>817</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C538">
         <v>1</v>
@@ -18614,7 +18614,7 @@
         <v>818</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C539">
         <v>1</v>
@@ -18625,7 +18625,7 @@
         <v>819</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C540">
         <v>1</v>
@@ -18636,7 +18636,7 @@
         <v>820</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C541">
         <v>1</v>
@@ -18647,7 +18647,7 @@
         <v>821</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C542">
         <v>1</v>
@@ -18658,7 +18658,7 @@
         <v>822</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C543">
         <v>1</v>
@@ -18669,7 +18669,7 @@
         <v>823</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="C544">
         <v>1</v>
@@ -18680,7 +18680,7 @@
         <v>824</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C545">
         <v>1</v>
@@ -18691,7 +18691,7 @@
         <v>825</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C546">
         <v>1</v>
@@ -18702,7 +18702,7 @@
         <v>826</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C547">
         <v>1</v>
@@ -18713,7 +18713,7 @@
         <v>827</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C548">
         <v>1</v>
@@ -18724,7 +18724,7 @@
         <v>828</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C549">
         <v>1</v>
@@ -18746,7 +18746,7 @@
         <v>830</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C551">
         <v>1</v>
@@ -18757,7 +18757,7 @@
         <v>831</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C552">
         <v>1</v>
@@ -18768,7 +18768,7 @@
         <v>832</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C553">
         <v>1</v>
@@ -18790,7 +18790,7 @@
         <v>834</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C555">
         <v>1</v>
@@ -18801,7 +18801,7 @@
         <v>835</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C556">
         <v>1</v>
@@ -18812,7 +18812,7 @@
         <v>836</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C557">
         <v>1</v>
@@ -18823,7 +18823,7 @@
         <v>837</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C558">
         <v>1</v>
@@ -18845,7 +18845,7 @@
         <v>839</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C560">
         <v>1</v>
@@ -18856,13 +18856,13 @@
         <v>840</v>
       </c>
       <c r="B561" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+      <c r="E561" t="s">
         <v>1767</v>
-      </c>
-      <c r="C561">
-        <v>1</v>
-      </c>
-      <c r="E561" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -18870,7 +18870,7 @@
         <v>841</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C562">
         <v>1</v>
@@ -18881,7 +18881,7 @@
         <v>842</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C563">
         <v>1</v>
@@ -18892,7 +18892,7 @@
         <v>843</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C564">
         <v>1</v>
@@ -18903,7 +18903,7 @@
         <v>844</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C565">
         <v>1</v>
@@ -18914,7 +18914,7 @@
         <v>845</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C566">
         <v>1</v>
@@ -18925,7 +18925,7 @@
         <v>846</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C567">
         <v>1</v>
@@ -18950,7 +18950,7 @@
         <v>848</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C569">
         <v>1</v>
@@ -18961,7 +18961,7 @@
         <v>849</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C570">
         <v>1</v>
@@ -18972,7 +18972,7 @@
         <v>850</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C571">
         <v>1</v>
@@ -18983,7 +18983,7 @@
         <v>851</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C572">
         <v>1</v>
@@ -18994,7 +18994,7 @@
         <v>852</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C573">
         <v>1</v>
@@ -19005,7 +19005,7 @@
         <v>853</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C574">
         <v>1</v>
@@ -19016,7 +19016,7 @@
         <v>854</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C575">
         <v>1</v>
@@ -19027,7 +19027,7 @@
         <v>855</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C576">
         <v>1</v>
@@ -19038,7 +19038,7 @@
         <v>856</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C577">
         <v>1</v>
@@ -19049,7 +19049,7 @@
         <v>857</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C578">
         <v>1</v>
@@ -19060,7 +19060,7 @@
         <v>858</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C579">
         <v>1</v>
@@ -19071,7 +19071,7 @@
         <v>859</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C580">
         <v>1</v>
@@ -19082,7 +19082,7 @@
         <v>860</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C581">
         <v>1</v>
@@ -19093,7 +19093,7 @@
         <v>861</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C582">
         <v>1</v>
@@ -19104,7 +19104,7 @@
         <v>862</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C583">
         <v>1</v>
@@ -19115,7 +19115,7 @@
         <v>863</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C584">
         <v>1</v>
@@ -19126,7 +19126,7 @@
         <v>864</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C585">
         <v>1</v>
@@ -19148,7 +19148,7 @@
         <v>865</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C587">
         <v>1</v>
@@ -19159,7 +19159,7 @@
         <v>866</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C588">
         <v>1</v>
@@ -19170,7 +19170,7 @@
         <v>867</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C589">
         <v>1</v>
@@ -19181,7 +19181,7 @@
         <v>868</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C590">
         <v>1</v>
@@ -19192,7 +19192,7 @@
         <v>869</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C591">
         <v>1</v>
@@ -19203,7 +19203,7 @@
         <v>870</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C592">
         <v>1</v>
@@ -19214,7 +19214,7 @@
         <v>871</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C593">
         <v>1</v>
@@ -19225,7 +19225,7 @@
         <v>872</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C594">
         <v>1</v>
@@ -19236,7 +19236,7 @@
         <v>873</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C595">
         <v>1</v>
@@ -19247,7 +19247,7 @@
         <v>874</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C596">
         <v>1</v>
@@ -19258,7 +19258,7 @@
         <v>875</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C597">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         <v>876</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C598">
         <v>1</v>
@@ -19280,7 +19280,7 @@
         <v>877</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C599">
         <v>1</v>
@@ -19291,7 +19291,7 @@
         <v>878</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C600">
         <v>1</v>
@@ -19302,7 +19302,7 @@
         <v>879</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C601">
         <v>1</v>
@@ -19313,7 +19313,7 @@
         <v>880</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C602">
         <v>1</v>
@@ -19324,7 +19324,7 @@
         <v>881</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C603">
         <v>1</v>
@@ -19335,7 +19335,7 @@
         <v>882</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C604">
         <v>1</v>
@@ -19346,7 +19346,7 @@
         <v>883</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C605">
         <v>1</v>
@@ -19357,7 +19357,7 @@
         <v>884</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C606">
         <v>1</v>
@@ -19368,7 +19368,7 @@
         <v>885</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C607">
         <v>1</v>
@@ -19379,7 +19379,7 @@
         <v>886</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C608">
         <v>1</v>
@@ -19390,7 +19390,7 @@
         <v>889</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C609">
         <v>1</v>
@@ -19401,7 +19401,7 @@
         <v>890</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C610">
         <v>1</v>
@@ -19412,7 +19412,7 @@
         <v>891</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C611">
         <v>1</v>
@@ -19423,7 +19423,7 @@
         <v>892</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C612">
         <v>1</v>
@@ -19434,7 +19434,7 @@
         <v>893</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C613">
         <v>1</v>
@@ -19445,7 +19445,7 @@
         <v>894</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C614">
         <v>1</v>
@@ -19456,7 +19456,7 @@
         <v>895</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C615">
         <v>1</v>
@@ -19467,7 +19467,7 @@
         <v>896</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C616">
         <v>1</v>
@@ -19478,7 +19478,7 @@
         <v>897</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C617">
         <v>1</v>
@@ -19489,7 +19489,7 @@
         <v>898</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C618">
         <v>1</v>
@@ -19500,7 +19500,7 @@
         <v>899</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C619">
         <v>1</v>
@@ -19511,7 +19511,7 @@
         <v>900</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C620">
         <v>1</v>
@@ -19522,7 +19522,7 @@
         <v>901</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C621">
         <v>1</v>
@@ -19533,7 +19533,7 @@
         <v>902</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C622">
         <v>1</v>
@@ -19544,7 +19544,7 @@
         <v>903</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C623">
         <v>1</v>
@@ -19555,7 +19555,7 @@
         <v>904</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C624">
         <v>1</v>
@@ -19566,7 +19566,7 @@
         <v>905</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C625">
         <v>1</v>
@@ -19577,7 +19577,7 @@
         <v>906</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C626">
         <v>1</v>
@@ -19588,7 +19588,7 @@
         <v>907</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C627">
         <v>1</v>
@@ -19599,7 +19599,7 @@
         <v>908</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C628">
         <v>1</v>
@@ -19610,7 +19610,7 @@
         <v>909</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C629">
         <v>1</v>
@@ -19621,7 +19621,7 @@
         <v>910</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C630">
         <v>1</v>
@@ -19632,7 +19632,7 @@
         <v>911</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C631">
         <v>1</v>
@@ -19643,7 +19643,7 @@
         <v>912</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C632">
         <v>1</v>
@@ -19654,13 +19654,13 @@
         <v>913</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C633">
         <v>1</v>
       </c>
       <c r="F633" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="634" spans="1:6">
@@ -19668,7 +19668,7 @@
         <v>914</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C634">
         <v>1</v>
@@ -19679,7 +19679,7 @@
         <v>915</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C635">
         <v>1</v>
@@ -19690,7 +19690,7 @@
         <v>916</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C636">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         <v>917</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C637">
         <v>1</v>
@@ -19712,7 +19712,7 @@
         <v>918</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C638">
         <v>1</v>
@@ -19723,7 +19723,7 @@
         <v>919</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C639">
         <v>1</v>
@@ -19745,7 +19745,7 @@
         <v>921</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C641">
         <v>1</v>
@@ -19756,7 +19756,7 @@
         <v>922</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C642">
         <v>1</v>
@@ -19767,7 +19767,7 @@
         <v>923</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C643">
         <v>1</v>
@@ -19778,7 +19778,7 @@
         <v>924</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C644">
         <v>1</v>
@@ -19789,7 +19789,7 @@
         <v>925</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C645">
         <v>1</v>
@@ -19800,7 +19800,7 @@
         <v>926</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C646">
         <v>1</v>
@@ -19811,7 +19811,7 @@
         <v>927</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C647">
         <v>1</v>
@@ -19822,7 +19822,7 @@
         <v>928</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C648">
         <v>1</v>
@@ -19833,7 +19833,7 @@
         <v>929</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C649">
         <v>1</v>
@@ -19844,7 +19844,7 @@
         <v>930</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C650">
         <v>1</v>
@@ -19855,7 +19855,7 @@
         <v>931</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C651">
         <v>1</v>
@@ -19866,7 +19866,7 @@
         <v>932</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C652">
         <v>1</v>
@@ -19877,7 +19877,7 @@
         <v>933</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C653">
         <v>1</v>
@@ -19888,7 +19888,7 @@
         <v>934</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C654">
         <v>1</v>
@@ -19899,7 +19899,7 @@
         <v>935</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C655">
         <v>1</v>
@@ -19910,7 +19910,7 @@
         <v>936</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C656">
         <v>1</v>
@@ -19921,7 +19921,7 @@
         <v>937</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C657">
         <v>1</v>
@@ -19932,7 +19932,7 @@
         <v>938</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C658">
         <v>1</v>
@@ -19943,7 +19943,7 @@
         <v>939</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C659">
         <v>1</v>
@@ -19954,7 +19954,7 @@
         <v>940</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C660">
         <v>1</v>
@@ -19965,7 +19965,7 @@
         <v>941</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C661">
         <v>1</v>
@@ -19976,7 +19976,7 @@
         <v>942</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C662">
         <v>1</v>
@@ -19987,7 +19987,7 @@
         <v>943</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C663">
         <v>1</v>
@@ -19998,7 +19998,7 @@
         <v>944</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C664">
         <v>1</v>
@@ -20009,7 +20009,7 @@
         <v>945</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C665">
         <v>1</v>
@@ -20020,7 +20020,7 @@
         <v>946</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="C666">
         <v>1</v>
@@ -20031,7 +20031,7 @@
         <v>947</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C667">
         <v>1</v>
@@ -20042,7 +20042,7 @@
         <v>948</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C668">
         <v>1</v>
@@ -20053,7 +20053,7 @@
         <v>949</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C669">
         <v>1</v>
@@ -20064,7 +20064,7 @@
         <v>950</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C670">
         <v>1</v>
@@ -20075,7 +20075,7 @@
         <v>951</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C671">
         <v>1</v>
@@ -20086,7 +20086,7 @@
         <v>952</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C672">
         <v>1</v>
@@ -20097,7 +20097,7 @@
         <v>953</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C673">
         <v>1</v>
@@ -20108,7 +20108,7 @@
         <v>954</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C674">
         <v>1</v>
@@ -20119,7 +20119,7 @@
         <v>955</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C675">
         <v>1</v>
@@ -20141,13 +20141,13 @@
         <v>958</v>
       </c>
       <c r="B677" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C677">
+        <v>1</v>
+      </c>
+      <c r="E677" s="2" t="s">
         <v>1812</v>
-      </c>
-      <c r="C677">
-        <v>1</v>
-      </c>
-      <c r="E677" s="2" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="678" spans="1:5">
@@ -20155,7 +20155,7 @@
         <v>959</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C678">
         <v>1</v>
@@ -20166,7 +20166,7 @@
         <v>960</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C679">
         <v>1</v>
@@ -20188,7 +20188,7 @@
         <v>962</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C681">
         <v>1</v>
@@ -20199,7 +20199,7 @@
         <v>963</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C682">
         <v>1</v>
@@ -20210,7 +20210,7 @@
         <v>964</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="C683">
         <v>1</v>
@@ -20221,7 +20221,7 @@
         <v>965</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C684">
         <v>1</v>
@@ -20232,7 +20232,7 @@
         <v>966</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C685">
         <v>1</v>
@@ -20243,7 +20243,7 @@
         <v>967</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C686">
         <v>1</v>
@@ -20254,7 +20254,7 @@
         <v>968</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C687">
         <v>1</v>
@@ -20265,7 +20265,7 @@
         <v>969</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C688">
         <v>1</v>
@@ -20276,7 +20276,7 @@
         <v>970</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C689">
         <v>1</v>
@@ -20287,7 +20287,7 @@
         <v>971</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C690">
         <v>1</v>
@@ -20298,7 +20298,7 @@
         <v>972</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C691">
         <v>1</v>
@@ -20309,7 +20309,7 @@
         <v>973</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C692">
         <v>1</v>
@@ -20331,7 +20331,7 @@
         <v>975</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C694">
         <v>1</v>
@@ -20342,7 +20342,7 @@
         <v>976</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C695">
         <v>1</v>
@@ -20353,7 +20353,7 @@
         <v>977</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C696">
         <v>1</v>
@@ -20364,7 +20364,7 @@
         <v>978</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C697">
         <v>1</v>
@@ -20375,7 +20375,7 @@
         <v>979</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C698">
         <v>1</v>
@@ -20386,7 +20386,7 @@
         <v>980</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C699">
         <v>1</v>
@@ -20397,7 +20397,7 @@
         <v>981</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C700">
         <v>1</v>
@@ -20408,7 +20408,7 @@
         <v>982</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C701">
         <v>1</v>
@@ -20428,7 +20428,7 @@
         <v>984</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C703">
         <v>1</v>
@@ -20448,7 +20448,7 @@
         <v>986</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C705">
         <v>1</v>
@@ -20459,7 +20459,7 @@
         <v>987</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C706">
         <v>1</v>
@@ -20470,7 +20470,7 @@
         <v>988</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C707">
         <v>1</v>
@@ -20481,7 +20481,7 @@
         <v>989</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C708">
         <v>1</v>
@@ -20492,7 +20492,7 @@
         <v>990</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C709">
         <v>1</v>
@@ -20503,7 +20503,7 @@
         <v>992</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C710">
         <v>1</v>
@@ -20514,7 +20514,7 @@
         <v>993</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C711">
         <v>1</v>
@@ -20525,7 +20525,7 @@
         <v>994</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C712">
         <v>1</v>
@@ -20536,7 +20536,7 @@
         <v>995</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C713">
         <v>1</v>
@@ -20547,7 +20547,7 @@
         <v>996</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C714">
         <v>1</v>
@@ -20558,7 +20558,7 @@
         <v>997</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C715">
         <v>1</v>
@@ -20569,7 +20569,7 @@
         <v>998</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C716">
         <v>1</v>
@@ -20580,7 +20580,7 @@
         <v>999</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C717">
         <v>1</v>
@@ -20591,7 +20591,7 @@
         <v>1000</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C718">
         <v>1</v>
@@ -20613,13 +20613,13 @@
         <v>1002</v>
       </c>
       <c r="B720" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C720">
+        <v>1</v>
+      </c>
+      <c r="E720" t="s">
         <v>1837</v>
-      </c>
-      <c r="C720">
-        <v>1</v>
-      </c>
-      <c r="E720" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -20627,7 +20627,7 @@
         <v>1003</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C721">
         <v>1</v>
@@ -20638,7 +20638,7 @@
         <v>1004</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C722">
         <v>1</v>
@@ -20669,7 +20669,7 @@
         <v>1007</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C725">
         <v>1</v>
@@ -20680,7 +20680,7 @@
         <v>1008</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C726">
         <v>1</v>
@@ -20691,7 +20691,7 @@
         <v>1009</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C727">
         <v>1</v>
@@ -20702,7 +20702,7 @@
         <v>1011</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C728">
         <v>1</v>
@@ -20713,7 +20713,7 @@
         <v>1012</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C729">
         <v>1</v>
@@ -20724,7 +20724,7 @@
         <v>1013</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C730">
         <v>1</v>
@@ -20735,7 +20735,7 @@
         <v>1014</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C731">
         <v>1</v>
@@ -20746,7 +20746,7 @@
         <v>1015</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C732">
         <v>1</v>
@@ -20788,7 +20788,7 @@
         <v>1018</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C736">
         <v>1</v>
@@ -20799,7 +20799,7 @@
         <v>1019</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C737">
         <v>1</v>
@@ -20810,7 +20810,7 @@
         <v>1020</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C738">
         <v>1</v>
@@ -20821,7 +20821,7 @@
         <v>1021</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C739">
         <v>1</v>
@@ -20841,7 +20841,7 @@
         <v>1023</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C741">
         <v>1</v>
@@ -20852,7 +20852,7 @@
         <v>1024</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C742">
         <v>1</v>
@@ -20863,7 +20863,7 @@
         <v>1025</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C743">
         <v>1</v>
@@ -20883,7 +20883,7 @@
         <v>1027</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C745">
         <v>1</v>
@@ -20894,7 +20894,7 @@
         <v>1028</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C746">
         <v>1</v>
@@ -20916,7 +20916,7 @@
         <v>1030</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C748">
         <v>1</v>
@@ -20927,7 +20927,7 @@
         <v>1031</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C749">
         <v>1</v>
@@ -20949,13 +20949,13 @@
         <v>1033</v>
       </c>
       <c r="B751" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C751">
+        <v>1</v>
+      </c>
+      <c r="F751" t="s">
         <v>1854</v>
-      </c>
-      <c r="C751">
-        <v>1</v>
-      </c>
-      <c r="F751" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="752" spans="1:6">
@@ -20963,7 +20963,7 @@
         <v>1034</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C752">
         <v>1</v>
@@ -20974,7 +20974,7 @@
         <v>1035</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C753">
         <v>1</v>
@@ -20985,7 +20985,7 @@
         <v>1036</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C754">
         <v>1</v>
@@ -20996,7 +20996,7 @@
         <v>1037</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C755">
         <v>1</v>
@@ -21007,7 +21007,7 @@
         <v>1038</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C756">
         <v>1</v>
@@ -21018,7 +21018,7 @@
         <v>1039</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C757">
         <v>1</v>
@@ -21029,7 +21029,7 @@
         <v>1040</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C758">
         <v>1</v>
@@ -21040,7 +21040,7 @@
         <v>1041</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C759">
         <v>1</v>
@@ -21054,7 +21054,7 @@
         <v>1042</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="C760">
         <v>1</v>
@@ -21068,7 +21068,7 @@
         <v>1043</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C761">
         <v>1</v>
@@ -21079,7 +21079,7 @@
         <v>1044</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C762">
         <v>1</v>
@@ -21090,7 +21090,7 @@
         <v>1045</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C763">
         <v>1</v>
@@ -21101,7 +21101,7 @@
         <v>1046</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C764">
         <v>1</v>
@@ -21121,7 +21121,7 @@
         <v>1047</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C766">
         <v>1</v>
@@ -21135,7 +21135,7 @@
         <v>1048</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C767">
         <v>1</v>
@@ -21146,7 +21146,7 @@
         <v>1049</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C768">
         <v>1</v>
@@ -21157,7 +21157,7 @@
         <v>1050</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C769">
         <v>1</v>
@@ -21168,13 +21168,13 @@
         <v>1051</v>
       </c>
       <c r="B770" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C770">
+        <v>1</v>
+      </c>
+      <c r="E770" t="s">
         <v>1866</v>
-      </c>
-      <c r="C770">
-        <v>1</v>
-      </c>
-      <c r="E770" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="771" spans="1:5">
@@ -21182,7 +21182,7 @@
         <v>1052</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C771">
         <v>1</v>
@@ -21193,7 +21193,7 @@
         <v>1053</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C772">
         <v>1</v>
@@ -21204,7 +21204,7 @@
         <v>1054</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C773">
         <v>1</v>
@@ -21215,7 +21215,7 @@
         <v>1055</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C774">
         <v>1</v>
@@ -21226,7 +21226,7 @@
         <v>1056</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C775">
         <v>1</v>
@@ -21237,7 +21237,7 @@
         <v>1057</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C776">
         <v>1</v>
@@ -21248,7 +21248,7 @@
         <v>1058</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C777">
         <v>1</v>
@@ -21259,7 +21259,7 @@
         <v>1059</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C778">
         <v>1</v>
@@ -21270,7 +21270,7 @@
         <v>1060</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C779">
         <v>1</v>
@@ -21281,7 +21281,7 @@
         <v>1061</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C780">
         <v>1</v>
@@ -21292,7 +21292,7 @@
         <v>1062</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C781">
         <v>1</v>
@@ -21303,7 +21303,7 @@
         <v>1063</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C782">
         <v>1</v>
@@ -21314,7 +21314,7 @@
         <v>1064</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C783">
         <v>1</v>
@@ -21325,7 +21325,7 @@
         <v>1065</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C784">
         <v>1</v>
@@ -21336,7 +21336,7 @@
         <v>1066</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C785">
         <v>1</v>
@@ -21347,7 +21347,7 @@
         <v>1067</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C786">
         <v>1</v>
@@ -21358,7 +21358,7 @@
         <v>1068</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C787">
         <v>1</v>
@@ -21369,7 +21369,7 @@
         <v>1069</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C788">
         <v>1</v>
@@ -21380,7 +21380,7 @@
         <v>1070</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C789">
         <v>1</v>
@@ -21391,7 +21391,7 @@
         <v>1071</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C790">
         <v>1</v>
@@ -21411,7 +21411,7 @@
         <v>1073</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C792">
         <v>1</v>
@@ -21422,7 +21422,7 @@
         <v>1074</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C793">
         <v>1</v>
@@ -21433,7 +21433,7 @@
         <v>1075</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C794">
         <v>1</v>
@@ -21444,7 +21444,7 @@
         <v>1076</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C795">
         <v>1</v>
@@ -21455,7 +21455,7 @@
         <v>1077</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C796">
         <v>1</v>
@@ -21466,7 +21466,7 @@
         <v>1078</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C797">
         <v>1</v>
@@ -21486,7 +21486,7 @@
         <v>1079</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C799">
         <v>1</v>
@@ -21497,7 +21497,7 @@
         <v>1080</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C800">
         <v>1</v>
@@ -21508,7 +21508,7 @@
         <v>1081</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C801">
         <v>1</v>
@@ -21519,7 +21519,7 @@
         <v>1082</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C802">
         <v>1</v>
@@ -21530,7 +21530,7 @@
         <v>1083</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C803">
         <v>1</v>
@@ -21541,7 +21541,7 @@
         <v>1084</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C804">
         <v>1</v>
@@ -21552,7 +21552,7 @@
         <v>1085</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C805">
         <v>1</v>
@@ -21563,7 +21563,7 @@
         <v>1086</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C806">
         <v>1</v>
@@ -21574,7 +21574,7 @@
         <v>1087</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C807">
         <v>1</v>
@@ -21585,7 +21585,7 @@
         <v>1088</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C808">
         <v>1</v>
@@ -21596,7 +21596,7 @@
         <v>1089</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C809">
         <v>1</v>
@@ -21610,7 +21610,7 @@
         <v>1090</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C810">
         <v>1</v>
@@ -21621,7 +21621,7 @@
         <v>1091</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C811">
         <v>1</v>
@@ -21632,7 +21632,7 @@
         <v>1092</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C812">
         <v>1</v>
@@ -21643,7 +21643,7 @@
         <v>1093</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C813">
         <v>1</v>
@@ -21654,7 +21654,7 @@
         <v>1094</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1885</v>
+        <v>1890</v>
       </c>
       <c r="C814">
         <v>1</v>
@@ -21665,13 +21665,13 @@
         <v>1095</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C815">
         <v>1</v>
       </c>
       <c r="E815" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="816" spans="1:5">
@@ -21679,7 +21679,7 @@
         <v>1096</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C816">
         <v>1</v>
@@ -21690,7 +21690,7 @@
         <v>1097</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C817">
         <v>1</v>
@@ -21701,7 +21701,7 @@
         <v>1098</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C818">
         <v>1</v>
@@ -21712,7 +21712,7 @@
         <v>1099</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C819">
         <v>1</v>
@@ -21720,10 +21720,10 @@
     </row>
     <row r="820" spans="1:3">
       <c r="A820" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
   </sheetData>
